--- a/data/trans_dic/P25C$productsfarma_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25C$productsfarma_2023-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.07794353677042737</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02818660539173745</v>
+        <v>0.02818660539173744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0606755627596299</v>
+        <v>0.06067556275962991</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03466348596890424</v>
+        <v>0.03480362396468922</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008734746381328271</v>
+        <v>0.009029727838147639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02848605854976315</v>
+        <v>0.03100121348983199</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1611807346528284</v>
+        <v>0.1657180702596793</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07654404640733456</v>
+        <v>0.07774504608722688</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1166896654870307</v>
+        <v>0.122948354132604</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008280320840345044</v>
+        <v>0.008535429993376203</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006817504793470212</v>
+        <v>0.006805415911854935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0134218314675686</v>
+        <v>0.01303186240609539</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07476716510748604</v>
+        <v>0.07701918558935957</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07557508592031904</v>
+        <v>0.0836330500421384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06264157766848887</v>
+        <v>0.05806050984002468</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.03618621938739668</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.05005208032621955</v>
+        <v>0.05005208032621954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03864942450756994</v>
+        <v>0.03864942450756995</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01044962792202559</v>
+        <v>0.008934218615575456</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01622240308325401</v>
+        <v>0.01523288416891518</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08531857314219672</v>
+        <v>0.09574543424338047</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1810190945638796</v>
+        <v>0.1735478227095615</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08823021269935806</v>
+        <v>0.08238168554727013</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.02824134302298485</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04570946714619292</v>
+        <v>0.04570946714619294</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.03326348346064199</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01029339900078667</v>
+        <v>0.01096920472190839</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01636583491893471</v>
+        <v>0.02043867092455429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01848894560641649</v>
+        <v>0.01707889532365536</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06033898937189519</v>
+        <v>0.05843603745780666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09758938266747842</v>
+        <v>0.0945775103073247</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05647390977478076</v>
+        <v>0.05664684182262601</v>
       </c>
     </row>
     <row r="16">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002484670819061825</v>
+        <v>0.002509023599844229</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06471580500965478</v>
+        <v>0.06627261602213153</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04782113860446715</v>
+        <v>0.05449123659206496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04103830159210994</v>
+        <v>0.04380554354013973</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.03759600121526097</v>
+        <v>0.03759600121526098</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02739138400944994</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03397077319488136</v>
+        <v>0.03397077319488135</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02460709551097299</v>
+        <v>0.02322334594605039</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0170382410642041</v>
+        <v>0.01580034264768053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02414441380355864</v>
+        <v>0.02439331220962572</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05780921755882697</v>
+        <v>0.05523741627356425</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04323796126756205</v>
+        <v>0.04348350407208638</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04841328030165937</v>
+        <v>0.04902513718859322</v>
       </c>
     </row>
     <row r="25">
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4528</v>
+        <v>4546</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>606</v>
+        <v>627</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5698</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="7">
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21053</v>
+        <v>21646</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5314</v>
+        <v>5397</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23343</v>
+        <v>24595</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>428</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2217</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="11">
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7652</v>
+        <v>7883</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4749</v>
+        <v>5255</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10348</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="12">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1097</v>
+        <v>938</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2071</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="15">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8958</v>
+        <v>10053</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4106</v>
+        <v>3936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11265</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="16">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2171</v>
+        <v>2314</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1393</v>
+        <v>1740</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5473</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="19">
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12727</v>
+        <v>12326</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8306</v>
+        <v>8050</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16718</v>
+        <v>16769</v>
       </c>
     </row>
     <row r="20">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23">
@@ -1371,13 +1371,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6099</v>
+        <v>6245</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3817</v>
+        <v>4349</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7143</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="24">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15990</v>
+        <v>15090</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6100</v>
+        <v>5657</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24333</v>
+        <v>24584</v>
       </c>
     </row>
     <row r="31">
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37564</v>
+        <v>35893</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15481</v>
+        <v>15569</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48792</v>
+        <v>49409</v>
       </c>
     </row>
     <row r="32">
